--- a/HOOD.xlsx
+++ b/HOOD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9477F16B-6BFF-4CD3-B50C-63EBC19D7F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99EB9A7-76DC-41FA-946F-F4609E98DE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42450" yWindow="915" windowWidth="38700" windowHeight="15345" xr2:uid="{3FB16939-449F-4D82-9510-64D6014B28F9}"/>
+    <workbookView xWindow="-32400" yWindow="1200" windowWidth="29955" windowHeight="18015" xr2:uid="{3FB16939-449F-4D82-9510-64D6014B28F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -666,9 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02BC131-65E5-4554-BA3F-A5B9C678BFFF}">
   <dimension ref="D2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
